--- a/Documentatie/RezultateExperimentale/W5W4_Timisoara_05_06.xlsx
+++ b/Documentatie/RezultateExperimentale/W5W4_Timisoara_05_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11775" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W5W4_Timisoara_05_06" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3485,24 +3483,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105390848"/>
-        <c:axId val="105392384"/>
+        <c:axId val="114312704"/>
+        <c:axId val="114314240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105390848"/>
+        <c:axId val="114312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105392384"/>
+        <c:crossAx val="114314240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105392384"/>
+        <c:axId val="114314240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,20 +3508,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105390848"/>
+        <c:crossAx val="114312704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4620,24 +4617,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="165921152"/>
-        <c:axId val="165922688"/>
+        <c:axId val="115192960"/>
+        <c:axId val="115194496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165921152"/>
+        <c:axId val="115192960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165922688"/>
+        <c:crossAx val="115194496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165922688"/>
+        <c:axId val="115194496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,7 +4642,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165921152"/>
+        <c:crossAx val="115192960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,7 +4655,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5755,24 +5752,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141307904"/>
-        <c:axId val="141497856"/>
+        <c:axId val="115206400"/>
+        <c:axId val="116674560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141307904"/>
+        <c:axId val="115206400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141497856"/>
+        <c:crossAx val="116674560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141497856"/>
+        <c:axId val="116674560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5780,7 +5777,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141307904"/>
+        <c:crossAx val="115206400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5793,7 +5790,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5803,9 +5800,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -8630,24 +8625,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105404672"/>
-        <c:axId val="105431040"/>
+        <c:axId val="114330624"/>
+        <c:axId val="114352896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105404672"/>
+        <c:axId val="114330624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105431040"/>
+        <c:crossAx val="114352896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105431040"/>
+        <c:axId val="114352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8655,20 +8650,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105404672"/>
+        <c:crossAx val="114330624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9777,24 +9771,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73557888"/>
-        <c:axId val="73559424"/>
+        <c:axId val="114012928"/>
+        <c:axId val="114014464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73557888"/>
+        <c:axId val="114012928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73559424"/>
+        <c:crossAx val="114014464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73559424"/>
+        <c:axId val="114014464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9802,7 +9796,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73557888"/>
+        <c:crossAx val="114012928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9815,7 +9809,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10924,24 +10918,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74406528"/>
-        <c:axId val="74410624"/>
+        <c:axId val="114030464"/>
+        <c:axId val="114032000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74406528"/>
+        <c:axId val="114030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74410624"/>
+        <c:crossAx val="114032000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74410624"/>
+        <c:axId val="114032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10949,7 +10943,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74406528"/>
+        <c:crossAx val="114030464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10962,7 +10956,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12071,24 +12065,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91271552"/>
-        <c:axId val="91273088"/>
+        <c:axId val="114867200"/>
+        <c:axId val="114967296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91271552"/>
+        <c:axId val="114867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91273088"/>
+        <c:crossAx val="114967296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91273088"/>
+        <c:axId val="114967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,7 +12090,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91271552"/>
+        <c:crossAx val="114867200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12109,7 +12103,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13218,24 +13212,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="135618560"/>
-        <c:axId val="135621248"/>
+        <c:axId val="114999680"/>
+        <c:axId val="115001216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135618560"/>
+        <c:axId val="114999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135621248"/>
+        <c:crossAx val="115001216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135621248"/>
+        <c:axId val="115001216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13243,7 +13237,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135618560"/>
+        <c:crossAx val="114999680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13256,7 +13250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14365,24 +14359,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93200768"/>
-        <c:axId val="93202304"/>
+        <c:axId val="114906624"/>
+        <c:axId val="114908160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93200768"/>
+        <c:axId val="114906624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93202304"/>
+        <c:crossAx val="114908160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93202304"/>
+        <c:axId val="114908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -14392,7 +14386,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93200768"/>
+        <c:crossAx val="114906624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14405,7 +14399,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15502,24 +15496,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92574080"/>
-        <c:axId val="93016064"/>
+        <c:axId val="115104384"/>
+        <c:axId val="115118464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92574080"/>
+        <c:axId val="115104384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93016064"/>
+        <c:crossAx val="115118464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93016064"/>
+        <c:axId val="115118464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15527,7 +15521,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92574080"/>
+        <c:crossAx val="115104384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15540,7 +15534,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16637,32 +16631,33 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="136229632"/>
-        <c:axId val="136231936"/>
+        <c:axId val="115167232"/>
+        <c:axId val="115168768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136229632"/>
+        <c:axId val="115167232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136231936"/>
+        <c:crossAx val="115168768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136231936"/>
+        <c:axId val="115168768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="80"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136229632"/>
+        <c:crossAx val="115167232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16675,7 +16670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16816,8 +16811,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -16841,13 +16836,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -39188,8 +39183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47526,8 +47521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
